--- a/Picoscope/excel/Power.xlsx
+++ b/Picoscope/excel/Power.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Acquisition</t>
   </si>
@@ -35,16 +35,28 @@
     <t>State</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Deepsleep</t>
   </si>
   <si>
-    <t>Idle</t>
+    <t>Power(mW)</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>Energy(Unvalid Almanac)</t>
+  </si>
+  <si>
+    <t>Energy(Valid , Valid Almanac)</t>
+  </si>
+  <si>
+    <t>update period= 15551700(179,23,55)</t>
+  </si>
+  <si>
+    <t>update period= 15552000(180)</t>
+  </si>
+  <si>
+    <t>Energy(J) t=14399</t>
   </si>
 </sst>
 </file>
@@ -133,9 +145,476 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Invalid </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ephemeris</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Power Consumption</a:t>
+              <a:t> &amp; Valid Almanac</a:t>
             </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>update period= 15551700(179,23,55)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4AFE-4C90-971B-808144A0072D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4AFE-4C90-971B-808144A0072D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4AFE-4C90-971B-808144A0072D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-4AFE-4C90-971B-808144A0072D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20555555555555555"/>
+                  <c:y val="-2.3148148148148157E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4AFE-4C90-971B-808144A0072D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26676815623338124"/>
+                  <c:y val="0.11701746695112561"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4AFE-4C90-971B-808144A0072D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17777777777777778"/>
+                  <c:y val="9.2592592592592379E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4AFE-4C90-971B-808144A0072D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.23814481928923689"/>
+                  <c:y val="-4.4162443608848252E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4AFE-4C90-971B-808144A0072D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Init</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acquisition</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Deepsleep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164066.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AFE-4C90-971B-808144A0072D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Invalid Ephemeris &amp; Valid Almanac</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -143,10 +622,1633 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32338188976377952"/>
-          <c:y val="4.1666666666666664E-2"/>
+          <c:x val="0.20829553643478235"/>
+          <c:y val="2.7662959152482441E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-42A9-4A4B-80AB-38BCF90020A0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-42A9-4A4B-80AB-38BCF90020A0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-42A9-4A4B-80AB-38BCF90020A0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-42A9-4A4B-80AB-38BCF90020A0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15489968074320373"/>
+                  <c:y val="0.21092897444479861"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-42A9-4A4B-80AB-38BCF90020A0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3469395600899328E-2"/>
+                  <c:y val="1.9013127369185919E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.2618375631018538"/>
+                      <c:h val="0.12014745492163263"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-42A9-4A4B-80AB-38BCF90020A0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21276065032302963"/>
+                  <c:y val="4.2557393379622159E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-42A9-4A4B-80AB-38BCF90020A0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.32417822697068238"/>
+                  <c:y val="7.7555992091346004E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.25060225163524785"/>
+                      <c:h val="0.12619754837932087"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-42A9-4A4B-80AB-38BCF90020A0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$25:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Init</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acquisition</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Deepsleep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3537.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16924.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>508.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42A9-4A4B-80AB-38BCF90020A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Valid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ephemeris &amp; Almanac</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18829438342751306"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Energy(J) t=14399</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F57E-4A22-8DC0-DB58251A9365}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-F57E-4A22-8DC0-DB58251A9365}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F57E-4A22-8DC0-DB58251A9365}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F57E-4A22-8DC0-DB58251A9365}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.6229512066165504E-2"/>
+                  <c:y val="2.4897884365991031E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F57E-4A22-8DC0-DB58251A9365}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.259580052493439E-2"/>
+                  <c:y val="8.4334852729304202E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-F57E-4A22-8DC0-DB58251A9365}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5874343832021001E-2"/>
+                  <c:y val="2.9868221898822503E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F57E-4A22-8DC0-DB58251A9365}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18294291338582677"/>
+                  <c:y val="2.0099947993829182E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F57E-4A22-8DC0-DB58251A9365}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Init</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acquisition</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Deepsleep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3538.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>564.17999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>509.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151.83000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F57E-4A22-8DC0-DB58251A9365}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Invalid Ephemeris &amp; Invalid Almanac</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17050219387470575"/>
+          <c:y val="7.9180913970638381E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-C9FB-494E-8232-05253DA756F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C9FB-494E-8232-05253DA756F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-C9FB-494E-8232-05253DA756F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C9FB-494E-8232-05253DA756F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.32268783556944552"/>
+                  <c:y val="1.9795033657733486E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.18546812504805341"/>
+                      <c:h val="0.13467613564407555"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-C9FB-494E-8232-05253DA756F9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26401732001136452"/>
+                  <c:y val="3.959045698531919E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C9FB-494E-8232-05253DA756F9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.27658957334523904"/>
+                  <c:y val="0.18805467068026616"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-C9FB-494E-8232-05253DA756F9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21372830667586651"/>
+                  <c:y val="-5.4436878354813881E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.24698010185175104"/>
+                      <c:h val="0.13962494276724047"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C9FB-494E-8232-05253DA756F9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$41:$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Init</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acquisition</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Deepsleep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2757999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164069.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9FB-494E-8232-05253DA756F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Power Consumption</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Of States</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -243,8 +2345,87 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6680-4AF3-B08A-215BEB012097}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.22777777777777763"/>
+                  <c:y val="4.6296296296296301E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.14704046369203849"/>
+                      <c:h val="0.135249343832021"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6680-4AF3-B08A-215BEB012097}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:solidFill>
                 <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -309,16 +2490,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Init</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Acquisition</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Tracking</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Deepsleep</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Idle</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -330,23 +2511,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.4</c:v>
+                  <c:v>320.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>257.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>232.416</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.201000000000001</c:v>
+                  <c:v>10.549759999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE02-4187-B4FF-DD2B37464197}"/>
+              <c16:uniqueId val="{00000000-6680-4AF3-B08A-215BEB012097}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -484,6 +2665,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -1003,27 +3344,2103 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4886</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>179552</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898F976D-B288-4A3D-AD2E-C49DDAC877F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E004DA-753A-4684-A85A-751C4E32FC9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1036,6 +5453,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4379</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>8759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>604344</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4379</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100CFC04-5285-43D3-A7A5-3460F5A00508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4379</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0047276-89C2-4C17-B9DC-A9D89D6307D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8758</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>604345</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>179551</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49107955-953C-460B-956C-6019F6C49E5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175172</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3045E7BE-3BB2-47BA-A696-9ADC7EF8C468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1341,64 +5902,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FD3A81-89A3-4511-9356-097AD34F7B2E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>320.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>6.4</v>
-      </c>
-      <c r="C2">
-        <v>35</v>
+      <c r="B3">
+        <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
+        <v>232.416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10.549759999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="B13">
+        <v>3538.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>564.17999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
+      <c r="B15">
+        <v>509.02</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>151.83000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0.01</v>
+      <c r="B25">
+        <v>3537.93</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>0</v>
       </c>
-      <c r="B5">
-        <v>10.201000000000001</v>
+      <c r="B26">
+        <v>16924.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>508.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>151.53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>3.2759</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0.47120000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>164066.32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>3.2757999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>18.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0.47120000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>164069.43</v>
       </c>
     </row>
   </sheetData>
